--- a/biology/Zoologie/Discoprosthides_patagoniensis/Discoprosthides_patagoniensis.xlsx
+++ b/biology/Zoologie/Discoprosthides_patagoniensis/Discoprosthides_patagoniensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Discoprosthides, Discoprosthididae
 Discoprosthides patagoniensis est une espèce bathyale de vers plats, la seule du genre Discoprosthides et de la famille des Discoprosthididae. Cette famille appartient à la super-famille des Stylochoidea (sous-ordre des Acotylea, ordre des Polycladia). Discoprosthides patagoniensis a été découverte au large de l'Argentine.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,12 +552,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille : Discoprosthididae Faubel, 1983[1].
-pour le genre : Discoprosthides Faubel, 1983[1]
-pour l'espèce : Discoprosthides patagoniensis Faubel, 1983[1]</t>
+pour la famille : Discoprosthididae Faubel, 1983.
+pour le genre : Discoprosthides Faubel, 1983
+pour l'espèce : Discoprosthides patagoniensis Faubel, 1983</t>
         </is>
       </c>
     </row>
